--- a/biology/Médecine/Centre_hospitalier_de_la_Côte_Basque/Centre_hospitalier_de_la_Côte_Basque.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_la_Côte_Basque/Centre_hospitalier_de_la_Côte_Basque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
+          <t>Centre_hospitalier_de_la_Côte_Basque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre hospitalier de la Côte Basque est un centre hospitalier français, situé à travers quatre sites principaux sur les communes de Bayonne et Saint-Jean-de-Luz et disposant de sites sur tout le Pays basque français[1].
+Le centre hospitalier de la Côte Basque est un centre hospitalier français, situé à travers quatre sites principaux sur les communes de Bayonne et Saint-Jean-de-Luz et disposant de sites sur tout le Pays basque français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
+          <t>Centre_hospitalier_de_la_Côte_Basque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,51 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier de la Côte Basque est issue de la fusion et du rassemblement de trois hôpitaux : 
 l'hôpital de Bayonne (Saint-Léon) ;
 l'hôpital Cam de Prats ;
 l'hôpital de Saint-Jean-de-Luz.
-L’hôpital Saint-Léon
-Le XIXe siècle présente une nouvelle étape dans l'histoire hospitalière de la ville, étape qui va s'inscrire physiquement dans l'architecture de la cité avec la création d'un nouvel hôpital.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_la_Côte_Basque</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L’hôpital Saint-Léon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le XIXe siècle présente une nouvelle étape dans l'histoire hospitalière de la ville, étape qui va s'inscrire physiquement dans l'architecture de la cité avec la création d'un nouvel hôpital.
 La nécessité d'un nouvel établissement, moderne et correspondant aux normes et aux besoins de l'époque se fait sentir dès le début du XIXe siècle, une fois terminés les troubles liés à la Révolution et à l'Empire. La maison Dagorette, l'actuel musée Basque, connue déjà sous le nom d'hôpital Saint-Léon devient, en effet, de plus en plus inadapté au fur et à mesure que la fonction hospitalière passe d'une mission d'assistance et de bienfaisance à une mission de soins.
 La réalisation de cet hôpital moderne est rendu possible grâce au don de Jacques Lormand, membre d'une grande famille bayonnaise.
 Après son installation définitive en 1868 sur le domaine de Tosse, l'hôpital Saint-Léon a connu plusieurs modifications...
@@ -549,16 +598,86 @@
 2003 : début de l'opération "Hôpital neuf": démolition du hall d'accueil
 2004-05 : agrandissement et modernisation de la maternité
 La décision de rénover le Centre Hospitalier sur place et non pas de construire un hôpital neuf totalement excentré, est portée par l'histoire de Bayonne et de son agglomération.
-L’hôpital Cam de Prats
-En 1834, le maire de la ville de Bayonne, voulant éteindre une mendicité devenue insupportable, eut la pensée de provoquer la fondation d'une société. Il convoqua un bon nombre d'habitants notables et l'assemblée nomma une commission qui fut chargée de recueillir des souscriptions dans tous les quartiers de la ville, de rédiger un projet de statuts pour la société à créer et de constituer un établissement destiné à l'extinction de la mendicité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_la_Côte_Basque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L’hôpital Cam de Prats</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1834, le maire de la ville de Bayonne, voulant éteindre une mendicité devenue insupportable, eut la pensée de provoquer la fondation d'une société. Il convoqua un bon nombre d'habitants notables et l'assemblée nomma une commission qui fut chargée de recueillir des souscriptions dans tous les quartiers de la ville, de rédiger un projet de statuts pour la société à créer et de constituer un établissement destiné à l'extinction de la mendicité.
 Le conseil municipal approuva cette donation par sa délibération du 8 du même mois. Ainsi naquit l'hospice de Cam de Prats, rattaché le 1er janvier 1888 à l'hôpital Saint-Léon.
 En 1965, la maison de retraite Bichta Eder voit le jour sur le site de Cam de Prats, permettant d'accueillir des personnes âgées valides.
 En 1972, alors que tous les patients de la Côte Basque relevant d'une pathologie psychiatrique étaient auparavant hospitalisés au centre hospitalier spécialisé de Pau, l'ancien sanatorium de Larressore est choisi pour abriter un service de psychiatrie capable de prendre en charge les patients de la Côte Basque. En 1975, Bellevue (bâtiment du site de Cam de Prats) accueille à son tour une partie de ces patients. Dans le même temps une unité pour personnes âgées non valides est construite : l'Arrayade.
 En 1995, l'ensemble des services de psychiatrie de Larressorre déménagent sur le site de Cam de Prats. Ce déménagement a nécessité la rénovation et l'agrandissement du bâtiment de Bellevue, et dans le même temps, la démolition de l'ancien hospice de Cam de Prats. Rapprocher les services de psychiatrie de la cité et des réseaux (sociaux, culturels, économiques, sportifs...) ainsi que de l'hôpital et des services de consultations et d'urgence, ne pouvait que favoriser l'intégration des malades dans la société. Ainsi, sont regroupées sur trois étages six unités d'hospitalisation psychiatriques à temps complet, soit un total de 120 lits, auxquels s'ajoutent les 7 CMP et 3 CATTP répartis sur la zone d'action géographique du centre hospitalier.
 Cette restructuration a également permis la construction de Goxoki, autre unité pour personnes âgées dépendantes en complément de l'Arrayade, dont le projet avait vu le jour en 1988 avec le troisième plan directeur.
 Aujourd'hui, les services de gériatrie de l'hôpital de Cam de Prats peuvent ainsi accueillir 258 personnes âgées grâce à quatre structures (Bichta Eder, l'Arrayade, les maisons de l'Arrayade et Goxoki).
-L’hôpital de Saint-Jean-de-Luz
-Refuge, hospice, hôpital local puis enfin Centre Hospitalier Intercommunal, l'hôpital de Saint-Jean-de-Luz a connu bien des mutations... Sur la route de Saint-Jacques-de-Compostelle, "l'hôpital" de Saint-Jean-de-Luz accueillait les pèlerins, les paysans et matelots des navires naufragés. Construit à l'embouchure de la Nivelle, puis au XVIIe siècle près de l'ancien jeu de paume, au-delà de la rue Sopite, il a longtemps été administré par des religieuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_la_Côte_Basque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L’hôpital de Saint-Jean-de-Luz</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refuge, hospice, hôpital local puis enfin Centre Hospitalier Intercommunal, l'hôpital de Saint-Jean-de-Luz a connu bien des mutations... Sur la route de Saint-Jacques-de-Compostelle, "l'hôpital" de Saint-Jean-de-Luz accueillait les pèlerins, les paysans et matelots des navires naufragés. Construit à l'embouchure de la Nivelle, puis au XVIIe siècle près de l'ancien jeu de paume, au-delà de la rue Sopite, il a longtemps été administré par des religieuses.
 1966 : hôpital rural
 La construction de "l'ancien hôpital" remonte au début du XXe siècle. Dans les années 1960, les sœurs quittent l'hôpital-hospice qui se modernise. Désormais, une structure administrative se met en place- des personnels nouveaux sont recrutés. L'hospice est classé hôpital rural. Et nous arrivons très vite à l'essor des années 1970-1980 :
 1970 : construction de la maison de retraite Udazkena, d'une capacité de 69 lits, qui reçoit des personnes âgées de plus de 60 ans valides et semi-valides ;
@@ -571,40 +690,77 @@
 1999 : création du patio d'Udazkena, unité d'accueil pour personnes âgées désorientées ;
 2000 : déménagement de la maternité sur le site de Saint-Léon, ouverture du centre périnatal de proximité pour le suivi des femmes enceintes pendant les mois des grossesses et après l'accouchement.
 Aujourd'hui, l'hôpital de Saint-Jean-de-Luz regroupe deux grands pôles : les unités de soins (avec une unité de médecine de 30 lits, une unité de réadaptation neurologique, un centre périnatal de proximité, un centre de planification et des consultations) et les services de personnes âgées : Udazena et Trikaldi (194 lits).
-Clinique Sokorri Saint Palais
-La clinique privée Sokorri à St Palais  a été transformée en Centre Hospitalier public qui a pris le nom de Centre Hospitalier de Saint Palais depuis 2013 . Ce Centre Hospitalier est autonome mais en Direction commune avec le Centre Hospitalier de la Côte Basque [2].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_la_Côte_Basque</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Clinique Sokorri Saint Palais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clinique privée Sokorri à St Palais  a été transformée en Centre Hospitalier public qui a pris le nom de Centre Hospitalier de Saint Palais depuis 2013 . Ce Centre Hospitalier est autonome mais en Direction commune avec le Centre Hospitalier de la Côte Basque .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_la_Côte_Basque</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_la_C%C3%B4te_Basque</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Chiffres clés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier possède plus de 1 200 places à travers ces établissements et emploie près de 3 000 personnes de la fonction publique hospitalière en 2011[3].
-Il s'agit d'un centre hospitalier de catégorie 3[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier possède plus de 1 200 places à travers ces établissements et emploie près de 3 000 personnes de la fonction publique hospitalière en 2011.
+Il s'agit d'un centre hospitalier de catégorie 3.
 </t>
         </is>
       </c>
